--- a/data/trans_orig/IP07A09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{922AA22A-C194-4BE7-89C1-F8831F0C836D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31A7910C-74F7-4A05-B560-11A2914CA043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{143BEA6C-CE4B-44F2-A656-4E4693F700E1}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{38D3BB1C-1F87-432F-A35F-789908D2D80A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,210 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
     <t>19,03%</t>
   </si>
   <si>
@@ -118,33 +301,6 @@
     <t>21,24%</t>
   </si>
   <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
     <t>1,25%</t>
   </si>
   <si>
@@ -172,33 +328,6 @@
     <t>3,08%</t>
   </si>
   <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
     <t>0,9%</t>
   </si>
   <si>
@@ -226,133 +355,55 @@
     <t>1,76%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
   </si>
   <si>
     <t>16,95%</t>
@@ -382,30 +433,6 @@
     <t>19,67%</t>
   </si>
   <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
     <t>1,41%</t>
   </si>
   <si>
@@ -433,33 +460,6 @@
     <t>2,88%</t>
   </si>
   <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
     <t>0,93%</t>
   </si>
   <si>
@@ -490,6 +490,183 @@
     <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 44,74%)</t>
   </si>
   <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
     <t>20,92%</t>
   </si>
   <si>
@@ -517,33 +694,6 @@
     <t>24,29%</t>
   </si>
   <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
     <t>2,74%</t>
   </si>
   <si>
@@ -571,33 +721,6 @@
     <t>4,15%</t>
   </si>
   <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
     <t>1,22%</t>
   </si>
   <si>
@@ -622,127 +745,58 @@
     <t>3,35%</t>
   </si>
   <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
   </si>
   <si>
     <t>20,79%</t>
@@ -772,33 +826,6 @@
     <t>23,03%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
     <t>3,04%</t>
   </si>
   <si>
@@ -817,33 +844,6 @@
     <t>4,28%</t>
   </si>
   <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
     <t>1,44%</t>
   </si>
   <si>
@@ -868,6 +868,186 @@
     <t>Menores según frecuencia de sentirse harto en 2015 (Tasa respuesta: 47,27%)</t>
   </si>
   <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
     <t>20,34%</t>
   </si>
   <si>
@@ -895,33 +1075,6 @@
     <t>22,82%</t>
   </si>
   <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
     <t>2,38%</t>
   </si>
   <si>
@@ -940,33 +1093,6 @@
     <t>4,89%</t>
   </si>
   <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
     <t>1,27%</t>
   </si>
   <si>
@@ -988,130 +1114,58 @@
     <t>3,29%</t>
   </si>
   <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
   </si>
   <si>
     <t>20,03%</t>
@@ -1141,33 +1195,6 @@
     <t>21,92%</t>
   </si>
   <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
     <t>2,62%</t>
   </si>
   <si>
@@ -1190,33 +1217,6 @@
   </si>
   <si>
     <t>4,94%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
   </si>
   <si>
     <t>2,45%</t>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D1ECB2-2543-4225-B3DB-D4263858C239}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B96487-E4E6-4735-9773-E5803FB84D47}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2022,10 +2022,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>53205</v>
+        <v>41159</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -2037,10 +2037,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>47215</v>
+        <v>28570</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -2052,10 +2052,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="N10" s="7">
-        <v>100420</v>
+        <v>69729</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -2073,10 +2073,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>76082</v>
+        <v>17471</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -2088,10 +2088,10 @@
         <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7">
-        <v>70109</v>
+        <v>15412</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
@@ -2103,10 +2103,10 @@
         <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N11" s="7">
-        <v>146191</v>
+        <v>32884</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -2124,10 +2124,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>3508</v>
+        <v>5370</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>35</v>
@@ -2139,10 +2139,10 @@
         <v>37</v>
       </c>
       <c r="H12" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I12" s="7">
-        <v>5967</v>
+        <v>8540</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>38</v>
@@ -2154,10 +2154,10 @@
         <v>40</v>
       </c>
       <c r="M12" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N12" s="7">
-        <v>9474</v>
+        <v>13911</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>41</v>
@@ -2175,10 +2175,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>217</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>144204</v>
+        <v>1365</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
@@ -2190,34 +2190,34 @@
         <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>139062</v>
+        <v>1300</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2666</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="7">
-        <v>422</v>
-      </c>
-      <c r="N13" s="7">
-        <v>283267</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,49 +2226,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>2522</v>
+        <v>700</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1577</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>3</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2277</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2597</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="7">
-        <v>8</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5119</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,102 +2277,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>419</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7">
-        <v>279521</v>
+        <v>66066</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>264949</v>
+        <v>55400</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>812</v>
+        <v>182</v>
       </c>
       <c r="N15" s="7">
-        <v>544471</v>
+        <v>121466</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="D16" s="7">
-        <v>5370</v>
+        <v>144204</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="7">
+        <v>205</v>
+      </c>
+      <c r="I16" s="7">
+        <v>139062</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>422</v>
+      </c>
+      <c r="N16" s="7">
+        <v>283267</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="7">
-        <v>13</v>
-      </c>
-      <c r="I16" s="7">
-        <v>8540</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="7">
-        <v>21</v>
-      </c>
-      <c r="N16" s="7">
-        <v>13911</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,49 +2381,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D17" s="7">
-        <v>17471</v>
+        <v>76082</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="7">
+        <v>106</v>
+      </c>
+      <c r="I17" s="7">
+        <v>70109</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>220</v>
+      </c>
+      <c r="N17" s="7">
+        <v>146191</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="7">
-        <v>23</v>
-      </c>
-      <c r="I17" s="7">
-        <v>15412</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M17" s="7">
-        <v>50</v>
-      </c>
-      <c r="N17" s="7">
-        <v>32884</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,49 +2432,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D18" s="7">
-        <v>1365</v>
+        <v>53205</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="7">
+        <v>70</v>
+      </c>
+      <c r="I18" s="7">
+        <v>47215</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>149</v>
+      </c>
+      <c r="N18" s="7">
+        <v>100420</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1300</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M18" s="7">
-        <v>4</v>
-      </c>
-      <c r="N18" s="7">
-        <v>2666</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,49 +2483,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>41159</v>
+        <v>3508</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>8</v>
+      </c>
+      <c r="I19" s="7">
+        <v>5967</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="7">
-        <v>42</v>
-      </c>
-      <c r="I19" s="7">
-        <v>28570</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>13</v>
+      </c>
+      <c r="N19" s="7">
+        <v>9474</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M19" s="7">
-        <v>104</v>
-      </c>
-      <c r="N19" s="7">
-        <v>69729</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,40 +2534,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>700</v>
+        <v>2522</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>4</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2597</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1577</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>101</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N20" s="7">
-        <v>2277</v>
+        <v>5119</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>102</v>
@@ -2585,49 +2585,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>100</v>
+        <v>419</v>
       </c>
       <c r="D21" s="7">
-        <v>66066</v>
+        <v>279521</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="I21" s="7">
-        <v>55400</v>
+        <v>264949</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>182</v>
+        <v>812</v>
       </c>
       <c r="N21" s="7">
-        <v>121466</v>
+        <v>544471</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,10 +2638,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>87</v>
+        <v>279</v>
       </c>
       <c r="D22" s="7">
-        <v>58575</v>
+        <v>185363</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>105</v>
@@ -2653,10 +2653,10 @@
         <v>107</v>
       </c>
       <c r="H22" s="7">
-        <v>83</v>
+        <v>247</v>
       </c>
       <c r="I22" s="7">
-        <v>55755</v>
+        <v>167632</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>108</v>
@@ -2668,10 +2668,10 @@
         <v>110</v>
       </c>
       <c r="M22" s="7">
-        <v>170</v>
+        <v>526</v>
       </c>
       <c r="N22" s="7">
-        <v>114330</v>
+        <v>352996</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>111</v>
@@ -2695,7 +2695,7 @@
         <v>93553</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>114</v>
@@ -2740,10 +2740,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="D24" s="7">
-        <v>4873</v>
+        <v>58575</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>122</v>
@@ -2755,10 +2755,10 @@
         <v>124</v>
       </c>
       <c r="H24" s="7">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="I24" s="7">
-        <v>7267</v>
+        <v>55755</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>125</v>
@@ -2770,10 +2770,10 @@
         <v>127</v>
       </c>
       <c r="M24" s="7">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="N24" s="7">
-        <v>12140</v>
+        <v>114330</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>128</v>
@@ -2791,10 +2791,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>279</v>
+        <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>185363</v>
+        <v>4873</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>131</v>
@@ -2806,10 +2806,10 @@
         <v>133</v>
       </c>
       <c r="H25" s="7">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="I25" s="7">
-        <v>167632</v>
+        <v>7267</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>134</v>
@@ -2821,10 +2821,10 @@
         <v>136</v>
       </c>
       <c r="M25" s="7">
-        <v>526</v>
+        <v>17</v>
       </c>
       <c r="N25" s="7">
-        <v>352996</v>
+        <v>12140</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>137</v>
@@ -2899,13 +2899,13 @@
         <v>345587</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>475</v>
@@ -2914,13 +2914,13 @@
         <v>320349</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>994</v>
@@ -2929,13 +2929,13 @@
         <v>665936</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2954,7 +2954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4D401E-034E-4575-8EC6-3B3D974BF39C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D402C61A-36B4-4797-A16F-BF7C3A08E704}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3344,10 +3344,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7">
-        <v>55440</v>
+        <v>34362</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>150</v>
@@ -3356,37 +3356,37 @@
         <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7">
+        <v>61</v>
+      </c>
+      <c r="I10" s="7">
+        <v>43576</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H10" s="7">
-        <v>76</v>
-      </c>
-      <c r="I10" s="7">
-        <v>54218</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>109</v>
+      </c>
+      <c r="N10" s="7">
+        <v>77937</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="M10" s="7">
-        <v>158</v>
-      </c>
-      <c r="N10" s="7">
-        <v>109658</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,49 +3395,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>54050</v>
+        <v>14049</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>21</v>
+      </c>
+      <c r="I11" s="7">
+        <v>14908</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H11" s="7">
-        <v>93</v>
-      </c>
-      <c r="I11" s="7">
-        <v>65227</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>41</v>
+      </c>
+      <c r="N11" s="7">
+        <v>28957</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="M11" s="7">
-        <v>175</v>
-      </c>
-      <c r="N11" s="7">
-        <v>119277</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,49 +3446,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7">
-        <v>7252</v>
+        <v>13431</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8387</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H12" s="7">
-        <v>10</v>
-      </c>
-      <c r="I12" s="7">
-        <v>7139</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>30</v>
+      </c>
+      <c r="N12" s="7">
+        <v>21818</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M12" s="7">
-        <v>21</v>
-      </c>
-      <c r="N12" s="7">
-        <v>14392</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,49 +3497,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>145088</v>
+        <v>2801</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2128</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H13" s="7">
-        <v>165</v>
-      </c>
-      <c r="I13" s="7">
-        <v>115065</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>7</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4929</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M13" s="7">
-        <v>375</v>
-      </c>
-      <c r="N13" s="7">
-        <v>260153</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,49 +3548,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>3232</v>
+        <v>1531</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="7">
+        <v>4</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2970</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>6</v>
+      </c>
+      <c r="N14" s="7">
+        <v>4502</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H14" s="7">
-        <v>12</v>
-      </c>
-      <c r="I14" s="7">
-        <v>8308</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M14" s="7">
-        <v>17</v>
-      </c>
-      <c r="N14" s="7">
-        <v>11540</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,102 +3599,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>390</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>265062</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>356</v>
+        <v>101</v>
       </c>
       <c r="I15" s="7">
-        <v>249957</v>
+        <v>71969</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>746</v>
+        <v>193</v>
       </c>
       <c r="N15" s="7">
-        <v>515020</v>
+        <v>138143</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="D16" s="7">
-        <v>13431</v>
+        <v>145088</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" s="7">
+        <v>165</v>
+      </c>
+      <c r="I16" s="7">
+        <v>115065</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H16" s="7">
-        <v>12</v>
-      </c>
-      <c r="I16" s="7">
-        <v>8387</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>375</v>
+      </c>
+      <c r="N16" s="7">
+        <v>260153</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="M16" s="7">
-        <v>30</v>
-      </c>
-      <c r="N16" s="7">
-        <v>21818</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,49 +3703,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="D17" s="7">
-        <v>14049</v>
+        <v>54050</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17" s="7">
+        <v>93</v>
+      </c>
+      <c r="I17" s="7">
+        <v>65227</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H17" s="7">
-        <v>21</v>
-      </c>
-      <c r="I17" s="7">
-        <v>14908</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>175</v>
+      </c>
+      <c r="N17" s="7">
+        <v>119277</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="M17" s="7">
-        <v>41</v>
-      </c>
-      <c r="N17" s="7">
-        <v>28957</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,49 +3754,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="D18" s="7">
-        <v>2801</v>
+        <v>55440</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H18" s="7">
+        <v>76</v>
+      </c>
+      <c r="I18" s="7">
+        <v>54218</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H18" s="7">
-        <v>3</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2128</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>158</v>
+      </c>
+      <c r="N18" s="7">
+        <v>109658</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="M18" s="7">
-        <v>7</v>
-      </c>
-      <c r="N18" s="7">
-        <v>4929</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,49 +3805,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>34362</v>
+        <v>7252</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>10</v>
+      </c>
+      <c r="I19" s="7">
+        <v>7139</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="7">
-        <v>61</v>
-      </c>
-      <c r="I19" s="7">
-        <v>43576</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>21</v>
+      </c>
+      <c r="N19" s="7">
+        <v>14392</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="M19" s="7">
-        <v>109</v>
-      </c>
-      <c r="N19" s="7">
-        <v>77937</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,46 +3856,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>1531</v>
+        <v>3232</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>229</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I20" s="7">
-        <v>2970</v>
+        <v>8308</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>230</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M20" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N20" s="7">
-        <v>4502</v>
+        <v>11540</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>233</v>
+        <v>87</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>234</v>
@@ -3907,49 +3907,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>390</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>265062</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>101</v>
+        <v>356</v>
       </c>
       <c r="I21" s="7">
-        <v>71969</v>
+        <v>249957</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>193</v>
+        <v>746</v>
       </c>
       <c r="N21" s="7">
-        <v>138143</v>
+        <v>515020</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,10 +3960,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="D22" s="7">
-        <v>68871</v>
+        <v>179450</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>235</v>
@@ -3975,10 +3975,10 @@
         <v>237</v>
       </c>
       <c r="H22" s="7">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="I22" s="7">
-        <v>62606</v>
+        <v>158641</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>238</v>
@@ -3990,10 +3990,10 @@
         <v>240</v>
       </c>
       <c r="M22" s="7">
-        <v>188</v>
+        <v>484</v>
       </c>
       <c r="N22" s="7">
-        <v>131476</v>
+        <v>338090</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>241</v>
@@ -4062,49 +4062,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D24" s="7">
-        <v>10054</v>
+        <v>68871</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>253</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H24" s="7">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="I24" s="7">
-        <v>9267</v>
+        <v>62606</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M24" s="7">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="N24" s="7">
-        <v>19321</v>
+        <v>131476</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,43 +4113,43 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="D25" s="7">
-        <v>179450</v>
+        <v>10054</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H25" s="7">
-        <v>226</v>
+        <v>13</v>
       </c>
       <c r="I25" s="7">
-        <v>158641</v>
+        <v>9267</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>262</v>
+        <v>139</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M25" s="7">
-        <v>484</v>
+        <v>28</v>
       </c>
       <c r="N25" s="7">
-        <v>338090</v>
+        <v>19321</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>266</v>
@@ -4203,7 +4203,7 @@
         <v>273</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>274</v>
@@ -4221,13 +4221,13 @@
         <v>331237</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>457</v>
@@ -4236,13 +4236,13 @@
         <v>321926</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>939</v>
@@ -4251,13 +4251,13 @@
         <v>653163</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4276,7 +4276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C51761F-E73E-4FDB-8C9D-92BE50B69FA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A40A47-AF89-480A-A494-1B3CAF791A5F}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4666,10 +4666,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7">
-        <v>57285</v>
+        <v>41259</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>276</v>
@@ -4681,10 +4681,10 @@
         <v>278</v>
       </c>
       <c r="H10" s="7">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="I10" s="7">
-        <v>51206</v>
+        <v>42904</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>279</v>
@@ -4696,10 +4696,10 @@
         <v>281</v>
       </c>
       <c r="M10" s="7">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="N10" s="7">
-        <v>108491</v>
+        <v>84162</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>282</v>
@@ -4717,10 +4717,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7">
-        <v>76702</v>
+        <v>18598</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>285</v>
@@ -4732,10 +4732,10 @@
         <v>287</v>
       </c>
       <c r="H11" s="7">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>75126</v>
+        <v>25868</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>288</v>
@@ -4747,10 +4747,10 @@
         <v>290</v>
       </c>
       <c r="M11" s="7">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="N11" s="7">
-        <v>151828</v>
+        <v>44466</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>291</v>
@@ -4768,49 +4768,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7">
-        <v>6696</v>
+        <v>15081</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>294</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>98</v>
+        <v>295</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I12" s="7">
-        <v>11208</v>
+        <v>14141</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>212</v>
+        <v>297</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M12" s="7">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N12" s="7">
-        <v>17904</v>
+        <v>29223</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>301</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,49 +4819,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>134128</v>
+        <v>2769</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H13" s="7">
-        <v>171</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>123846</v>
+        <v>4268</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M13" s="7">
-        <v>351</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>257974</v>
+        <v>7037</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>307</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,49 +4870,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2025</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H14" s="7">
+        <v>6</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3768</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M14" s="7">
         <v>9</v>
       </c>
-      <c r="D14" s="7">
-        <v>6818</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3873</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="M14" s="7">
-        <v>14</v>
-      </c>
       <c r="N14" s="7">
-        <v>10691</v>
+        <v>5793</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,102 +4921,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>381</v>
+        <v>115</v>
       </c>
       <c r="D15" s="7">
-        <v>281629</v>
+        <v>79732</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>372</v>
+        <v>137</v>
       </c>
       <c r="I15" s="7">
-        <v>265259</v>
+        <v>90949</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>753</v>
+        <v>252</v>
       </c>
       <c r="N15" s="7">
-        <v>546888</v>
+        <v>170681</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="D16" s="7">
-        <v>15081</v>
+        <v>134128</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H16" s="7">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="I16" s="7">
-        <v>14141</v>
+        <v>123846</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M16" s="7">
-        <v>43</v>
+        <v>351</v>
       </c>
       <c r="N16" s="7">
-        <v>29223</v>
+        <v>257974</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,49 +5025,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D17" s="7">
-        <v>18598</v>
+        <v>76702</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H17" s="7">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="I17" s="7">
-        <v>25868</v>
+        <v>75126</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M17" s="7">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="N17" s="7">
-        <v>44466</v>
+        <v>151828</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,49 +5076,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D18" s="7">
-        <v>2769</v>
+        <v>57285</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="I18" s="7">
-        <v>4268</v>
+        <v>51206</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M18" s="7">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="N18" s="7">
-        <v>7037</v>
+        <v>108491</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>343</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,49 +5127,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>41259</v>
+        <v>6696</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>343</v>
+        <v>51</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H19" s="7">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="I19" s="7">
-        <v>42904</v>
+        <v>11208</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>176</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M19" s="7">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="N19" s="7">
-        <v>84162</v>
+        <v>17904</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>348</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5178,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D20" s="7">
-        <v>2025</v>
+        <v>6818</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>351</v>
@@ -5193,25 +5193,25 @@
         <v>352</v>
       </c>
       <c r="H20" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>3768</v>
+        <v>3873</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>354</v>
       </c>
       <c r="M20" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N20" s="7">
-        <v>5793</v>
+        <v>10691</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>355</v>
@@ -5229,49 +5229,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>115</v>
+        <v>381</v>
       </c>
       <c r="D21" s="7">
-        <v>79732</v>
+        <v>281629</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>137</v>
+        <v>372</v>
       </c>
       <c r="I21" s="7">
-        <v>90949</v>
+        <v>265259</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>252</v>
+        <v>753</v>
       </c>
       <c r="N21" s="7">
-        <v>170681</v>
+        <v>546888</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,10 +5282,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>101</v>
+        <v>240</v>
       </c>
       <c r="D22" s="7">
-        <v>72367</v>
+        <v>175387</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>358</v>
@@ -5297,10 +5297,10 @@
         <v>360</v>
       </c>
       <c r="H22" s="7">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="I22" s="7">
-        <v>65348</v>
+        <v>166749</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>361</v>
@@ -5312,10 +5312,10 @@
         <v>363</v>
       </c>
       <c r="M22" s="7">
-        <v>199</v>
+        <v>475</v>
       </c>
       <c r="N22" s="7">
-        <v>137714</v>
+        <v>342136</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>364</v>
@@ -5384,49 +5384,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="D24" s="7">
-        <v>9465</v>
+        <v>72367</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>376</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>268</v>
+        <v>377</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H24" s="7">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="I24" s="7">
-        <v>15477</v>
+        <v>65348</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M24" s="7">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="N24" s="7">
-        <v>24941</v>
+        <v>137714</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,25 +5435,25 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>175387</v>
+        <v>9465</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>385</v>
+        <v>268</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>386</v>
       </c>
       <c r="H25" s="7">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="I25" s="7">
-        <v>166749</v>
+        <v>15477</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>387</v>
@@ -5465,10 +5465,10 @@
         <v>389</v>
       </c>
       <c r="M25" s="7">
-        <v>475</v>
+        <v>35</v>
       </c>
       <c r="N25" s="7">
-        <v>342136</v>
+        <v>24941</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>390</v>
@@ -5510,7 +5510,7 @@
         <v>396</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>397</v>
@@ -5543,13 +5543,13 @@
         <v>361361</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>509</v>
@@ -5558,13 +5558,13 @@
         <v>356208</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>1005</v>
@@ -5573,13 +5573,13 @@
         <v>717569</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31A7910C-74F7-4A05-B560-11A2914CA043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B37737F-92BD-4E26-94B1-047F13466043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{38D3BB1C-1F87-432F-A35F-789908D2D80A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DE8E87B5-DEE7-45B8-9D0B-2262656770C9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="396">
   <si>
     <t>Menores según frecuencia de sentirse harto en 2007 (Tasa respuesta: 47,24%)</t>
   </si>
@@ -67,1051 +67,1138 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
   </si>
   <si>
     <t>50,0%</t>
   </si>
   <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
   </si>
   <si>
     <t>27,07%</t>
   </si>
   <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2015 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
   </si>
   <si>
     <t>48,54%</t>
@@ -1120,127 +1207,25 @@
     <t>44,15%</t>
   </si>
   <si>
-    <t>52,7%</t>
+    <t>52,78%</t>
   </si>
   <si>
     <t>46,81%</t>
   </si>
   <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1236,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1347,39 +1332,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1431,7 +1416,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1542,13 +1527,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1557,6 +1535,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1621,19 +1606,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B96487-E4E6-4735-9773-E5803FB84D47}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DF3821-EC11-4953-A50D-09D88DBFBD1D}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2022,49 +2027,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>62</v>
-      </c>
-      <c r="D10" s="7">
-        <v>41159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>42</v>
-      </c>
-      <c r="I10" s="7">
-        <v>28570</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>104</v>
-      </c>
-      <c r="N10" s="7">
-        <v>69729</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,49 +2072,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>27</v>
-      </c>
-      <c r="D11" s="7">
-        <v>17471</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>23</v>
-      </c>
-      <c r="I11" s="7">
-        <v>15412</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>50</v>
-      </c>
-      <c r="N11" s="7">
-        <v>32884</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,49 +2117,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>13</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>21</v>
-      </c>
-      <c r="N12" s="7">
-        <v>13911</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,49 +2162,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2666</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,49 +2207,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1577</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,102 +2252,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>82</v>
-      </c>
-      <c r="I15" s="7">
-        <v>55400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>182</v>
-      </c>
-      <c r="N15" s="7">
-        <v>121466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>217</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>144204</v>
+        <v>1965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>205</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>139062</v>
+        <v>2230</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>422</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>283267</v>
+        <v>4195</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,49 +2350,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>76082</v>
+        <v>2740</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>70109</v>
+        <v>2747</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>220</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>146191</v>
+        <v>5487</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,49 +2401,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D18" s="7">
-        <v>53205</v>
+        <v>18653</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I18" s="7">
-        <v>47215</v>
+        <v>16620</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="N18" s="7">
-        <v>100420</v>
+        <v>35273</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,49 +2452,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>3508</v>
+        <v>38136</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="I19" s="7">
-        <v>5967</v>
+        <v>41532</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="N19" s="7">
-        <v>9474</v>
+        <v>79668</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,49 +2503,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="D20" s="7">
-        <v>2522</v>
+        <v>80022</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="I20" s="7">
-        <v>2597</v>
+        <v>63123</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="N20" s="7">
-        <v>5119</v>
+        <v>143144</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,102 +2554,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>419</v>
+        <v>212</v>
       </c>
       <c r="D21" s="7">
-        <v>279521</v>
+        <v>141515</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>393</v>
+        <v>189</v>
       </c>
       <c r="I21" s="7">
-        <v>264949</v>
+        <v>126252</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>812</v>
+        <v>401</v>
       </c>
       <c r="N21" s="7">
-        <v>544471</v>
+        <v>267767</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>279</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>185363</v>
+        <v>1257</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
-        <v>247</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>167632</v>
+        <v>1943</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="M22" s="7">
-        <v>526</v>
+        <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>352996</v>
+        <v>3200</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,49 +2658,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>93553</v>
+        <v>2134</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="H23" s="7">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="I23" s="7">
-        <v>85521</v>
+        <v>4520</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="M23" s="7">
-        <v>270</v>
+        <v>9</v>
       </c>
       <c r="N23" s="7">
-        <v>179074</v>
+        <v>6654</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,49 +2709,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>60</v>
+      </c>
+      <c r="D24" s="7">
+        <v>39922</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="7">
+        <v>58</v>
+      </c>
+      <c r="I24" s="7">
+        <v>39135</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="7">
-        <v>58575</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="7">
-        <v>83</v>
-      </c>
-      <c r="I24" s="7">
-        <v>55755</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="M24" s="7">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="N24" s="7">
-        <v>114330</v>
+        <v>79057</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,49 +2760,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="D25" s="7">
-        <v>4873</v>
+        <v>55417</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="H25" s="7">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="I25" s="7">
-        <v>7267</v>
+        <v>43989</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="M25" s="7">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="N25" s="7">
-        <v>12140</v>
+        <v>99406</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,49 +2811,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="D26" s="7">
-        <v>3222</v>
+        <v>105342</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="H26" s="7">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="I26" s="7">
-        <v>4173</v>
+        <v>104510</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="M26" s="7">
-        <v>11</v>
+        <v>312</v>
       </c>
       <c r="N26" s="7">
-        <v>7396</v>
+        <v>209851</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,55 +2862,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>307</v>
+      </c>
+      <c r="D27" s="7">
+        <v>204072</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>286</v>
+      </c>
+      <c r="I27" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>593</v>
+      </c>
+      <c r="N27" s="7">
+        <v>398169</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>5</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3222</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="7">
+        <v>6</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4173</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M28" s="7">
+        <v>11</v>
+      </c>
+      <c r="N28" s="7">
+        <v>7396</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>7</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4873</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="7">
+        <v>10</v>
+      </c>
+      <c r="I29" s="7">
+        <v>7267</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M29" s="7">
+        <v>17</v>
+      </c>
+      <c r="N29" s="7">
+        <v>12140</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>87</v>
+      </c>
+      <c r="D30" s="7">
+        <v>58575</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="7">
+        <v>83</v>
+      </c>
+      <c r="I30" s="7">
+        <v>55755</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M30" s="7">
+        <v>170</v>
+      </c>
+      <c r="N30" s="7">
+        <v>114330</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>141</v>
+      </c>
+      <c r="D31" s="7">
+        <v>93553</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="7">
+        <v>129</v>
+      </c>
+      <c r="I31" s="7">
+        <v>85521</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M31" s="7">
+        <v>270</v>
+      </c>
+      <c r="N31" s="7">
+        <v>179074</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>279</v>
+      </c>
+      <c r="D32" s="7">
+        <v>185363</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" s="7">
+        <v>247</v>
+      </c>
+      <c r="I32" s="7">
+        <v>167632</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M32" s="7">
+        <v>526</v>
+      </c>
+      <c r="N32" s="7">
+        <v>352996</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>519</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>345587</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>475</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>320349</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>994</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>665936</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>58</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2954,8 +3237,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D402C61A-36B4-4797-A16F-BF7C3A08E704}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D563FA-C1FF-4B31-BEC7-470E8D394DCF}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2971,7 +3254,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3344,49 +3627,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
-      </c>
-      <c r="D10" s="7">
-        <v>34362</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>61</v>
-      </c>
-      <c r="I10" s="7">
-        <v>43576</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>109</v>
-      </c>
-      <c r="N10" s="7">
-        <v>77937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,49 +3672,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7">
-        <v>14049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>21</v>
-      </c>
-      <c r="I11" s="7">
-        <v>14908</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>41</v>
-      </c>
-      <c r="N11" s="7">
-        <v>28957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,49 +3717,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>18</v>
-      </c>
-      <c r="D12" s="7">
-        <v>13431</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>12</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8387</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>30</v>
-      </c>
-      <c r="N12" s="7">
-        <v>21818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,49 +3762,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2801</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
-      </c>
-      <c r="N13" s="7">
-        <v>4929</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,49 +3807,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1531</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>6</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4502</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,102 +3852,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>101</v>
-      </c>
-      <c r="I15" s="7">
-        <v>71969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>193</v>
-      </c>
-      <c r="N15" s="7">
-        <v>138143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>145088</v>
+        <v>3426</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="H16" s="7">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>115065</v>
+        <v>5669</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="M16" s="7">
-        <v>375</v>
+        <v>13</v>
       </c>
       <c r="N16" s="7">
-        <v>260153</v>
+        <v>9095</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,49 +3950,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>54050</v>
+        <v>5473</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="H17" s="7">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>65227</v>
+        <v>2737</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="M17" s="7">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>119277</v>
+        <v>8210</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,49 +4001,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D18" s="7">
-        <v>55440</v>
+        <v>32528</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="H18" s="7">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>54218</v>
+        <v>24385</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="M18" s="7">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="N18" s="7">
-        <v>109658</v>
+        <v>56913</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,49 +4052,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D19" s="7">
-        <v>7252</v>
+        <v>30623</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="H19" s="7">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="I19" s="7">
-        <v>7139</v>
+        <v>30548</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="M19" s="7">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="N19" s="7">
-        <v>14392</v>
+        <v>61172</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,49 +4103,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="D20" s="7">
-        <v>3232</v>
+        <v>84624</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="H20" s="7">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I20" s="7">
-        <v>8308</v>
+        <v>91457</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="M20" s="7">
-        <v>17</v>
+        <v>251</v>
       </c>
       <c r="N20" s="7">
-        <v>11540</v>
+        <v>176080</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,102 +4154,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>390</v>
+        <v>225</v>
       </c>
       <c r="D21" s="7">
-        <v>265062</v>
+        <v>156674</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>356</v>
+        <v>220</v>
       </c>
       <c r="I21" s="7">
-        <v>249957</v>
+        <v>154796</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>746</v>
+        <v>445</v>
       </c>
       <c r="N21" s="7">
-        <v>515020</v>
+        <v>311470</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>258</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>179450</v>
+        <v>1338</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="H22" s="7">
-        <v>226</v>
+        <v>8</v>
       </c>
       <c r="I22" s="7">
-        <v>158641</v>
+        <v>5609</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="M22" s="7">
-        <v>484</v>
+        <v>10</v>
       </c>
       <c r="N22" s="7">
-        <v>338090</v>
+        <v>6947</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>241</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,49 +4258,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="D23" s="7">
-        <v>68099</v>
+        <v>4581</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="H23" s="7">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="I23" s="7">
-        <v>80134</v>
+        <v>6530</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="M23" s="7">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="N23" s="7">
-        <v>148234</v>
+        <v>11111</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,49 +4309,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D24" s="7">
-        <v>68871</v>
+        <v>36342</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="H24" s="7">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="I24" s="7">
-        <v>62606</v>
+        <v>38221</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="M24" s="7">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="N24" s="7">
-        <v>131476</v>
+        <v>74563</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,49 +4360,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D25" s="7">
-        <v>10054</v>
+        <v>37476</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H25" s="7">
+        <v>70</v>
+      </c>
+      <c r="I25" s="7">
+        <v>49586</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H25" s="7">
-        <v>13</v>
-      </c>
-      <c r="I25" s="7">
-        <v>9267</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="M25" s="7">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="N25" s="7">
-        <v>19321</v>
+        <v>87062</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,49 +4411,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="D26" s="7">
-        <v>4764</v>
+        <v>94826</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="H26" s="7">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I26" s="7">
-        <v>11278</v>
+        <v>67184</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="M26" s="7">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="N26" s="7">
-        <v>16042</v>
+        <v>162010</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>264</v>
+        <v>58</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,55 +4462,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>257</v>
+      </c>
+      <c r="D27" s="7">
+        <v>174562</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>237</v>
+      </c>
+      <c r="I27" s="7">
+        <v>167130</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>494</v>
+      </c>
+      <c r="N27" s="7">
+        <v>341692</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>7</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4764</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="7">
+        <v>16</v>
+      </c>
+      <c r="I28" s="7">
+        <v>11278</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M28" s="7">
+        <v>23</v>
+      </c>
+      <c r="N28" s="7">
+        <v>16042</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>15</v>
+      </c>
+      <c r="D29" s="7">
+        <v>10054</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H29" s="7">
+        <v>13</v>
+      </c>
+      <c r="I29" s="7">
+        <v>9267</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="7">
+        <v>28</v>
+      </c>
+      <c r="N29" s="7">
+        <v>19321</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>100</v>
+      </c>
+      <c r="D30" s="7">
+        <v>68871</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H30" s="7">
+        <v>88</v>
+      </c>
+      <c r="I30" s="7">
+        <v>62606</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M30" s="7">
+        <v>188</v>
+      </c>
+      <c r="N30" s="7">
+        <v>131476</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>102</v>
+      </c>
+      <c r="D31" s="7">
+        <v>68099</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H31" s="7">
+        <v>114</v>
+      </c>
+      <c r="I31" s="7">
+        <v>80134</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M31" s="7">
+        <v>216</v>
+      </c>
+      <c r="N31" s="7">
+        <v>148234</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>258</v>
+      </c>
+      <c r="D32" s="7">
+        <v>179450</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H32" s="7">
+        <v>226</v>
+      </c>
+      <c r="I32" s="7">
+        <v>158641</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="M32" s="7">
+        <v>484</v>
+      </c>
+      <c r="N32" s="7">
+        <v>338090</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>482</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>331237</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>457</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>321926</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>939</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>653163</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>58</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4276,8 +4837,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A40A47-AF89-480A-A494-1B3CAF791A5F}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46335D62-F708-4B28-8FC7-C912812266EC}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4293,7 +4854,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4666,49 +5227,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>60</v>
-      </c>
-      <c r="D10" s="7">
-        <v>41259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>64</v>
-      </c>
-      <c r="I10" s="7">
-        <v>42904</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>124</v>
-      </c>
-      <c r="N10" s="7">
-        <v>84162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,49 +5272,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
-      </c>
-      <c r="D11" s="7">
-        <v>18598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>39</v>
-      </c>
-      <c r="I11" s="7">
-        <v>25868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>65</v>
-      </c>
-      <c r="N11" s="7">
-        <v>44466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,49 +5317,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>22</v>
-      </c>
-      <c r="D12" s="7">
-        <v>15081</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>21</v>
-      </c>
-      <c r="I12" s="7">
-        <v>14141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>43</v>
-      </c>
-      <c r="N12" s="7">
-        <v>29223</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,49 +5362,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2769</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>305</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>307</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>11</v>
-      </c>
-      <c r="N13" s="7">
-        <v>7037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,49 +5407,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7">
-        <v>2025</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>312</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>313</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3768</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5793</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>316</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>317</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,102 +5452,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>115</v>
-      </c>
-      <c r="D15" s="7">
-        <v>79732</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>137</v>
-      </c>
-      <c r="I15" s="7">
-        <v>90949</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>252</v>
-      </c>
-      <c r="N15" s="7">
-        <v>170681</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>134128</v>
+        <v>4808</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>320</v>
+        <v>204</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
-        <v>171</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>123846</v>
+        <v>3768</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>322</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
-        <v>351</v>
+        <v>13</v>
       </c>
       <c r="N16" s="7">
-        <v>257974</v>
+        <v>8576</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,49 +5550,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>76702</v>
+        <v>6437</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="I17" s="7">
-        <v>75126</v>
+        <v>6447</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="M17" s="7">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="N17" s="7">
-        <v>151828</v>
+        <v>12884</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,49 +5601,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D18" s="7">
-        <v>57285</v>
+        <v>35966</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="I18" s="7">
-        <v>51206</v>
+        <v>28284</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="M18" s="7">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="N18" s="7">
-        <v>108491</v>
+        <v>64249</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,49 +5652,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D19" s="7">
-        <v>6696</v>
+        <v>43249</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>51</v>
+        <v>303</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="H19" s="7">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="I19" s="7">
-        <v>11208</v>
+        <v>51996</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>176</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="M19" s="7">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="N19" s="7">
-        <v>17904</v>
+        <v>95245</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>48</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,49 +5703,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="D20" s="7">
-        <v>6818</v>
+        <v>96854</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="I20" s="7">
-        <v>3873</v>
+        <v>94924</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>182</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="N20" s="7">
-        <v>10691</v>
+        <v>191778</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,102 +5754,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>381</v>
+        <v>261</v>
       </c>
       <c r="D21" s="7">
-        <v>281629</v>
+        <v>187313</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>372</v>
+        <v>266</v>
       </c>
       <c r="I21" s="7">
-        <v>265259</v>
+        <v>185419</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>753</v>
+        <v>527</v>
       </c>
       <c r="N21" s="7">
-        <v>546888</v>
+        <v>372732</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>175387</v>
+        <v>4035</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="H22" s="7">
-        <v>235</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>166749</v>
+        <v>3873</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>361</v>
+        <v>120</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="M22" s="7">
-        <v>475</v>
+        <v>10</v>
       </c>
       <c r="N22" s="7">
-        <v>342136</v>
+        <v>7908</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>365</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,49 +5858,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="D23" s="7">
-        <v>95300</v>
+        <v>3027</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="H23" s="7">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I23" s="7">
-        <v>100993</v>
+        <v>9030</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>371</v>
+        <v>244</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
-        <v>273</v>
+        <v>16</v>
       </c>
       <c r="N23" s="7">
-        <v>196293</v>
+        <v>12057</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>373</v>
+        <v>238</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,49 +5909,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D24" s="7">
-        <v>72367</v>
+        <v>36401</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="H24" s="7">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="I24" s="7">
-        <v>65348</v>
+        <v>37064</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>381</v>
+        <v>339</v>
       </c>
       <c r="M24" s="7">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="N24" s="7">
-        <v>137714</v>
+        <v>73465</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>383</v>
+        <v>341</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>384</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,49 +5960,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="D25" s="7">
-        <v>9465</v>
+        <v>52051</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="I25" s="7">
-        <v>15477</v>
+        <v>48998</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="N25" s="7">
-        <v>24941</v>
+        <v>101048</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>392</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,49 +6011,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="D26" s="7">
-        <v>8843</v>
+        <v>78533</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>393</v>
+        <v>352</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="H26" s="7">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="I26" s="7">
-        <v>7641</v>
+        <v>71825</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="N26" s="7">
-        <v>16484</v>
+        <v>150358</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,55 +6062,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>235</v>
+      </c>
+      <c r="D27" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>243</v>
+      </c>
+      <c r="I27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>478</v>
+      </c>
+      <c r="N27" s="7">
+        <v>344837</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>12</v>
+      </c>
+      <c r="D28" s="7">
+        <v>8843</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H28" s="7">
+        <v>11</v>
+      </c>
+      <c r="I28" s="7">
+        <v>7641</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M28" s="7">
+        <v>23</v>
+      </c>
+      <c r="N28" s="7">
+        <v>16484</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>13</v>
+      </c>
+      <c r="D29" s="7">
+        <v>9465</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H29" s="7">
+        <v>22</v>
+      </c>
+      <c r="I29" s="7">
+        <v>15477</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M29" s="7">
+        <v>35</v>
+      </c>
+      <c r="N29" s="7">
+        <v>24941</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>101</v>
+      </c>
+      <c r="D30" s="7">
+        <v>72367</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H30" s="7">
+        <v>98</v>
+      </c>
+      <c r="I30" s="7">
+        <v>65348</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="M30" s="7">
+        <v>199</v>
+      </c>
+      <c r="N30" s="7">
+        <v>137714</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>130</v>
+      </c>
+      <c r="D31" s="7">
+        <v>95300</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H31" s="7">
+        <v>143</v>
+      </c>
+      <c r="I31" s="7">
+        <v>100993</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="M31" s="7">
+        <v>273</v>
+      </c>
+      <c r="N31" s="7">
+        <v>196293</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>240</v>
+      </c>
+      <c r="D32" s="7">
+        <v>175387</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H32" s="7">
+        <v>235</v>
+      </c>
+      <c r="I32" s="7">
+        <v>166749</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="M32" s="7">
+        <v>475</v>
+      </c>
+      <c r="N32" s="7">
+        <v>342136</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>496</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>361361</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>509</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>356208</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>1005</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>717569</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>58</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A09-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B37737F-92BD-4E26-94B1-047F13466043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76C2A271-2EAA-488C-99D3-A4E382432460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DE8E87B5-DEE7-45B8-9D0B-2262656770C9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D94E8DCA-AAE3-4B05-AC98-A8F3855C8547}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="389">
   <si>
     <t>Menores según frecuencia de sentirse harto en 2007 (Tasa respuesta: 47,24%)</t>
   </si>
@@ -97,1135 +97,1114 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>0,51%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
   </si>
   <si>
     <t>51,76%</t>
   </si>
   <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
   </si>
   <si>
     <t>47,42%</t>
   </si>
   <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
   </si>
   <si>
     <t>18,35%</t>
   </si>
   <si>
-    <t>21,99%</t>
+    <t>22,19%</t>
   </si>
   <si>
     <t>19,19%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
   </si>
   <si>
     <t>26,37%</t>
   </si>
   <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
   </si>
   <si>
     <t>28,35%</t>
   </si>
   <si>
-    <t>32,59%</t>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
+    <t>30,5%</t>
   </si>
   <si>
     <t>48,54%</t>
   </si>
   <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
   </si>
   <si>
     <t>46,81%</t>
   </si>
   <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DF3821-EC11-4953-A50D-09D88DBFBD1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE98CD3A-D3D5-49D7-8B54-FFCA0AB5FAA2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2374,10 +2353,10 @@
         <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -2386,13 +2365,13 @@
         <v>5487</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,13 +2386,13 @@
         <v>18653</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -2422,13 +2401,13 @@
         <v>16620</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
@@ -2437,13 +2416,13 @@
         <v>35273</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,13 +2437,13 @@
         <v>38136</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -2473,13 +2452,13 @@
         <v>41532</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M19" s="7">
         <v>121</v>
@@ -2488,13 +2467,13 @@
         <v>79668</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,13 +2488,13 @@
         <v>80022</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H20" s="7">
         <v>94</v>
@@ -2524,13 +2503,13 @@
         <v>63123</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M20" s="7">
         <v>214</v>
@@ -2539,13 +2518,13 @@
         <v>143144</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,13 +2539,13 @@
         <v>141515</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>189</v>
@@ -2575,13 +2554,13 @@
         <v>126252</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>401</v>
@@ -2590,18 +2569,18 @@
         <v>267767</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2613,13 +2592,13 @@
         <v>1257</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2628,13 +2607,13 @@
         <v>1943</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -2643,13 +2622,13 @@
         <v>3200</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2643,13 @@
         <v>2134</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2679,13 +2658,13 @@
         <v>4520</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -2694,13 +2673,13 @@
         <v>6654</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2694,13 @@
         <v>39922</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H24" s="7">
         <v>58</v>
@@ -2730,13 +2709,13 @@
         <v>39135</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M24" s="7">
         <v>118</v>
@@ -2745,13 +2724,13 @@
         <v>79057</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2745,13 @@
         <v>55417</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -2781,13 +2760,13 @@
         <v>43989</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M25" s="7">
         <v>149</v>
@@ -2796,13 +2775,13 @@
         <v>99406</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,13 +2796,13 @@
         <v>105342</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H26" s="7">
         <v>153</v>
@@ -2832,13 +2811,13 @@
         <v>104510</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M26" s="7">
         <v>312</v>
@@ -2847,13 +2826,13 @@
         <v>209851</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,13 +2847,13 @@
         <v>204072</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>286</v>
@@ -2883,13 +2862,13 @@
         <v>194097</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>593</v>
@@ -2898,13 +2877,13 @@
         <v>398169</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2900,13 @@
         <v>3222</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -2936,13 +2915,13 @@
         <v>4173</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -2951,13 +2930,13 @@
         <v>7396</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,10 +2954,10 @@
         <v>117</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -2987,13 +2966,13 @@
         <v>7267</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -3002,13 +2981,13 @@
         <v>12140</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +3002,13 @@
         <v>58575</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H30" s="7">
         <v>83</v>
@@ -3038,13 +3017,13 @@
         <v>55755</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M30" s="7">
         <v>170</v>
@@ -3053,13 +3032,13 @@
         <v>114330</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,13 +3053,13 @@
         <v>93553</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H31" s="7">
         <v>129</v>
@@ -3089,13 +3068,13 @@
         <v>85521</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M31" s="7">
         <v>270</v>
@@ -3104,13 +3083,13 @@
         <v>179074</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3104,13 @@
         <v>185363</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H32" s="7">
         <v>247</v>
@@ -3140,13 +3119,13 @@
         <v>167632</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M32" s="7">
         <v>526</v>
@@ -3155,13 +3134,13 @@
         <v>352996</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,13 +3155,13 @@
         <v>345587</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" s="7">
         <v>475</v>
@@ -3191,13 +3170,13 @@
         <v>320349</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M33" s="7">
         <v>994</v>
@@ -3206,18 +3185,18 @@
         <v>665936</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3237,7 +3216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D563FA-C1FF-4B31-BEC7-470E8D394DCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80989333-8D9E-4666-9F4B-0B8EDA277468}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3254,7 +3233,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3905,13 +3884,13 @@
         <v>3426</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3920,13 +3899,13 @@
         <v>5669</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3935,13 +3914,13 @@
         <v>9095</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,10 +3938,10 @@
         <v>162</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3974,10 +3953,10 @@
         <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -3986,13 +3965,13 @@
         <v>8210</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +3986,13 @@
         <v>32528</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -4022,13 +4001,13 @@
         <v>24385</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M18" s="7">
         <v>79</v>
@@ -4037,13 +4016,13 @@
         <v>56913</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4037,13 @@
         <v>30623</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H19" s="7">
         <v>44</v>
@@ -4073,13 +4052,13 @@
         <v>30548</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -4088,13 +4067,13 @@
         <v>61172</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4088,13 @@
         <v>84624</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H20" s="7">
         <v>130</v>
@@ -4124,13 +4103,13 @@
         <v>91457</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M20" s="7">
         <v>251</v>
@@ -4139,13 +4118,13 @@
         <v>176080</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4139,13 @@
         <v>156674</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>220</v>
@@ -4175,13 +4154,13 @@
         <v>154796</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>445</v>
@@ -4190,18 +4169,18 @@
         <v>311470</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4213,13 +4192,13 @@
         <v>1338</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -4228,13 +4207,13 @@
         <v>5609</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -4243,13 +4222,13 @@
         <v>6947</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4243,13 @@
         <v>4581</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -4279,13 +4258,13 @@
         <v>6530</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -4294,13 +4273,13 @@
         <v>11111</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4294,13 @@
         <v>36342</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H24" s="7">
         <v>54</v>
@@ -4330,13 +4309,13 @@
         <v>38221</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M24" s="7">
         <v>109</v>
@@ -4345,13 +4324,13 @@
         <v>74563</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4345,13 @@
         <v>37476</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>219</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -4381,13 +4360,13 @@
         <v>49586</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M25" s="7">
         <v>126</v>
@@ -4396,13 +4375,13 @@
         <v>87062</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4396,13 @@
         <v>94826</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -4432,13 +4411,13 @@
         <v>67184</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M26" s="7">
         <v>233</v>
@@ -4447,13 +4426,13 @@
         <v>162010</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4447,13 @@
         <v>174562</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>237</v>
@@ -4483,13 +4462,13 @@
         <v>167130</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>494</v>
@@ -4498,13 +4477,13 @@
         <v>341692</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4500,13 @@
         <v>4764</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -4536,13 +4515,13 @@
         <v>11278</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -4551,13 +4530,13 @@
         <v>16042</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4551,13 @@
         <v>10054</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -4587,13 +4566,13 @@
         <v>9267</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -4602,13 +4581,13 @@
         <v>19321</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4602,13 @@
         <v>68871</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H30" s="7">
         <v>88</v>
@@ -4638,13 +4617,13 @@
         <v>62606</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M30" s="7">
         <v>188</v>
@@ -4653,13 +4632,13 @@
         <v>131476</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,13 +4653,13 @@
         <v>68099</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H31" s="7">
         <v>114</v>
@@ -4689,13 +4668,13 @@
         <v>80134</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M31" s="7">
         <v>216</v>
@@ -4704,13 +4683,13 @@
         <v>148234</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4704,13 @@
         <v>179450</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H32" s="7">
         <v>226</v>
@@ -4740,13 +4719,13 @@
         <v>158641</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M32" s="7">
         <v>484</v>
@@ -4755,13 +4734,13 @@
         <v>338090</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4755,13 @@
         <v>331237</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" s="7">
         <v>457</v>
@@ -4791,13 +4770,13 @@
         <v>321926</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M33" s="7">
         <v>939</v>
@@ -4806,18 +4785,18 @@
         <v>653163</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4837,7 +4816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46335D62-F708-4B28-8FC7-C912812266EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A8B52E-BAB2-47BB-9759-6AE202AEF760}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4854,7 +4833,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5505,13 +5484,13 @@
         <v>4808</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5520,13 +5499,13 @@
         <v>3768</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>279</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -5535,13 +5514,13 @@
         <v>8576</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5535,13 @@
         <v>6437</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -5571,10 +5550,10 @@
         <v>6447</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>289</v>
@@ -5628,7 +5607,7 @@
         <v>297</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="M18" s="7">
         <v>91</v>
@@ -5637,13 +5616,13 @@
         <v>64249</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5637,13 @@
         <v>43249</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -5673,13 +5652,13 @@
         <v>51996</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M19" s="7">
         <v>135</v>
@@ -5688,13 +5667,13 @@
         <v>95245</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5688,13 @@
         <v>96854</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>134</v>
@@ -5724,13 +5703,13 @@
         <v>94924</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>269</v>
@@ -5739,13 +5718,13 @@
         <v>191778</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5739,13 @@
         <v>187313</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>266</v>
@@ -5775,13 +5754,13 @@
         <v>185419</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>527</v>
@@ -5790,18 +5769,18 @@
         <v>372732</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5813,13 +5792,13 @@
         <v>4035</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>321</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -5828,13 +5807,13 @@
         <v>3873</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -5843,13 +5822,13 @@
         <v>7908</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5843,13 @@
         <v>3027</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -5879,13 +5858,13 @@
         <v>9030</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -5894,13 +5873,13 @@
         <v>12057</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5894,13 @@
         <v>36401</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H24" s="7">
         <v>57</v>
@@ -5930,13 +5909,13 @@
         <v>37064</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M24" s="7">
         <v>108</v>
@@ -5945,13 +5924,13 @@
         <v>73465</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5945,13 @@
         <v>52051</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -5981,13 +5960,13 @@
         <v>48998</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>347</v>
+        <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M25" s="7">
         <v>138</v>
@@ -5996,13 +5975,13 @@
         <v>101048</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +5996,13 @@
         <v>78533</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>276</v>
       </c>
       <c r="H26" s="7">
         <v>101</v>
@@ -6032,13 +6011,13 @@
         <v>71825</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M26" s="7">
         <v>206</v>
@@ -6047,13 +6026,13 @@
         <v>150358</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6047,13 @@
         <v>174048</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>243</v>
@@ -6083,13 +6062,13 @@
         <v>170789</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>478</v>
@@ -6098,13 +6077,13 @@
         <v>344837</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6100,13 @@
         <v>8843</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -6136,13 +6115,13 @@
         <v>7641</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>124</v>
+        <v>359</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>364</v>
+        <v>244</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -6151,13 +6130,13 @@
         <v>16484</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>360</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>365</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6151,13 @@
         <v>9465</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>366</v>
+        <v>251</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -6187,13 +6166,13 @@
         <v>15477</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -6202,13 +6181,13 @@
         <v>24941</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6202,13 @@
         <v>72367</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>371</v>
+        <v>268</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H30" s="7">
         <v>98</v>
@@ -6238,13 +6217,13 @@
         <v>65348</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="M30" s="7">
         <v>199</v>
@@ -6253,13 +6232,13 @@
         <v>137714</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6253,13 @@
         <v>95300</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="H31" s="7">
         <v>143</v>
@@ -6289,13 +6268,13 @@
         <v>100993</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>141</v>
+        <v>376</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M31" s="7">
         <v>273</v>
@@ -6304,13 +6283,13 @@
         <v>196293</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>385</v>
+        <v>264</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6304,13 @@
         <v>175387</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="H32" s="7">
         <v>235</v>
@@ -6340,13 +6319,13 @@
         <v>166749</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M32" s="7">
         <v>475</v>
@@ -6355,13 +6334,13 @@
         <v>342136</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,13 +6355,13 @@
         <v>361361</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" s="7">
         <v>509</v>
@@ -6391,13 +6370,13 @@
         <v>356208</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M33" s="7">
         <v>1005</v>
@@ -6406,18 +6385,18 @@
         <v>717569</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76C2A271-2EAA-488C-99D3-A4E382432460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB4E6708-B7CF-4CBC-8BFB-3521BF93ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D94E8DCA-AAE3-4B05-AC98-A8F3855C8547}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{CC9F0DEB-74F7-4123-AACB-DA57EDBF2C2B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="396">
   <si>
     <t>Menores según frecuencia de sentirse harto en 2007 (Tasa respuesta: 47,24%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,1117 +94,1138 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
     <t>1,39%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
   </si>
   <si>
     <t>20,03%</t>
   </si>
   <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2016 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
   </si>
   <si>
     <t>19,19%</t>
   </si>
   <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
   </si>
   <si>
     <t>26,37%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
+    <t>30,48%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>30,5%</t>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
   </si>
   <si>
     <t>48,54%</t>
   </si>
   <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
+    <t>44,15%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE98CD3A-D3D5-49D7-8B54-FFCA0AB5FAA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A11F96-BA1A-4CE7-A7D4-11B70A9B1CBC}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2281,7 +2302,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>1965</v>
+        <v>2230</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2296,7 +2317,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>2230</v>
+        <v>1965</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2332,7 +2353,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>2740</v>
+        <v>2747</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2347,16 +2368,16 @@
         <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>2747</v>
+        <v>2740</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -2365,13 +2386,13 @@
         <v>5487</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,34 +2401,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7">
+        <v>16620</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="7">
         <v>27</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>18653</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="7">
-        <v>25</v>
-      </c>
-      <c r="I18" s="7">
-        <v>16620</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
@@ -2416,13 +2437,13 @@
         <v>35273</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,34 +2452,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>63</v>
+      </c>
+      <c r="D19" s="7">
+        <v>41532</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="7">
         <v>58</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>38136</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="7">
-        <v>63</v>
-      </c>
-      <c r="I19" s="7">
-        <v>41532</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
         <v>121</v>
@@ -2467,13 +2488,13 @@
         <v>79668</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,34 +2503,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>94</v>
+      </c>
+      <c r="D20" s="7">
+        <v>63123</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="7">
         <v>120</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>80022</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="7">
-        <v>94</v>
-      </c>
-      <c r="I20" s="7">
-        <v>63123</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
         <v>214</v>
@@ -2518,13 +2539,13 @@
         <v>143144</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,34 +2554,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>189</v>
+      </c>
+      <c r="D21" s="7">
+        <v>126252</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>212</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>141515</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="7">
-        <v>189</v>
-      </c>
-      <c r="I21" s="7">
-        <v>126252</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
         <v>401</v>
@@ -2569,51 +2590,51 @@
         <v>267767</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1943</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="7">
         <v>2</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>1257</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="7">
-        <v>3</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1943</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -2622,13 +2643,13 @@
         <v>3200</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,34 +2658,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>6</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4520</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="7">
         <v>3</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>2134</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="7">
-        <v>6</v>
-      </c>
-      <c r="I23" s="7">
-        <v>4520</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -2673,13 +2694,13 @@
         <v>6654</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,34 +2709,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>58</v>
+      </c>
+      <c r="D24" s="7">
+        <v>39135</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="7">
         <v>60</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>39922</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="7">
-        <v>58</v>
-      </c>
-      <c r="I24" s="7">
-        <v>39135</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M24" s="7">
         <v>118</v>
@@ -2724,13 +2745,13 @@
         <v>79057</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,34 +2760,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>66</v>
+      </c>
+      <c r="D25" s="7">
+        <v>43989</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="7">
         <v>83</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>55417</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H25" s="7">
-        <v>66</v>
-      </c>
-      <c r="I25" s="7">
-        <v>43989</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M25" s="7">
         <v>149</v>
@@ -2775,13 +2796,13 @@
         <v>99406</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,34 +2811,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>153</v>
+      </c>
+      <c r="D26" s="7">
+        <v>104510</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="7">
         <v>159</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>105342</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H26" s="7">
-        <v>153</v>
-      </c>
-      <c r="I26" s="7">
-        <v>104510</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M26" s="7">
         <v>312</v>
@@ -2826,13 +2847,13 @@
         <v>209851</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,34 +2862,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>286</v>
+      </c>
+      <c r="D27" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>204072</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
-        <v>286</v>
-      </c>
-      <c r="I27" s="7">
-        <v>194097</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M27" s="7">
         <v>593</v>
@@ -2877,13 +2898,13 @@
         <v>398169</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,34 +2915,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>6</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4173</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="7">
         <v>5</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>3222</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H28" s="7">
-        <v>6</v>
-      </c>
-      <c r="I28" s="7">
-        <v>4173</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -2930,13 +2951,13 @@
         <v>7396</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,34 +2966,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>10</v>
+      </c>
+      <c r="D29" s="7">
+        <v>7267</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="7">
         <v>7</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>4873</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="7">
-        <v>10</v>
-      </c>
-      <c r="I29" s="7">
-        <v>7267</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -2981,13 +3002,13 @@
         <v>12140</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,34 +3017,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>83</v>
+      </c>
+      <c r="D30" s="7">
+        <v>55755</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="7">
         <v>87</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>58575</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H30" s="7">
-        <v>83</v>
-      </c>
-      <c r="I30" s="7">
-        <v>55755</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M30" s="7">
         <v>170</v>
@@ -3032,13 +3053,13 @@
         <v>114330</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,34 +3068,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>129</v>
+      </c>
+      <c r="D31" s="7">
+        <v>85521</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="7">
         <v>141</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>93553</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H31" s="7">
-        <v>129</v>
-      </c>
-      <c r="I31" s="7">
-        <v>85521</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M31" s="7">
         <v>270</v>
@@ -3083,13 +3104,13 @@
         <v>179074</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,34 +3119,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>247</v>
+      </c>
+      <c r="D32" s="7">
+        <v>167632</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="7">
         <v>279</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>185363</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H32" s="7">
-        <v>247</v>
-      </c>
-      <c r="I32" s="7">
-        <v>167632</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M32" s="7">
         <v>526</v>
@@ -3134,13 +3155,13 @@
         <v>352996</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,34 +3170,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>475</v>
+      </c>
+      <c r="D33" s="7">
+        <v>320349</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>519</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>345587</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="7">
-        <v>475</v>
-      </c>
-      <c r="I33" s="7">
-        <v>320349</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M33" s="7">
         <v>994</v>
@@ -3185,18 +3206,18 @@
         <v>665936</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3216,7 +3237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80989333-8D9E-4666-9F4B-0B8EDA277468}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9320CC03-29F4-4B58-BC43-DD1F245FA159}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3233,7 +3254,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3878,34 +3899,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5669</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="7">
         <v>5</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>3426</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5669</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3914,13 +3935,13 @@
         <v>9095</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,34 +3950,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2737</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" s="7">
         <v>8</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>5473</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2737</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -3965,13 +3986,13 @@
         <v>8210</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,34 +4001,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>34</v>
+      </c>
+      <c r="D18" s="7">
+        <v>24385</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" s="7">
         <v>45</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>32528</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H18" s="7">
-        <v>34</v>
-      </c>
-      <c r="I18" s="7">
-        <v>24385</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M18" s="7">
         <v>79</v>
@@ -4016,13 +4037,13 @@
         <v>56913</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,34 +4052,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>44</v>
+      </c>
+      <c r="D19" s="7">
+        <v>30548</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="7">
         <v>46</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>30623</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H19" s="7">
-        <v>44</v>
-      </c>
-      <c r="I19" s="7">
-        <v>30548</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -4067,13 +4088,13 @@
         <v>61172</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,34 +4103,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>130</v>
+      </c>
+      <c r="D20" s="7">
+        <v>91457</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H20" s="7">
         <v>121</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>84624</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H20" s="7">
-        <v>130</v>
-      </c>
-      <c r="I20" s="7">
-        <v>91457</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M20" s="7">
         <v>251</v>
@@ -4118,13 +4139,13 @@
         <v>176080</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,34 +4154,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>220</v>
+      </c>
+      <c r="D21" s="7">
+        <v>154796</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>225</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>156674</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="7">
-        <v>220</v>
-      </c>
-      <c r="I21" s="7">
-        <v>154796</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
         <v>445</v>
@@ -4169,51 +4190,51 @@
         <v>311470</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>8</v>
+      </c>
+      <c r="D22" s="7">
+        <v>5609</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H22" s="7">
         <v>2</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>1338</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H22" s="7">
-        <v>8</v>
-      </c>
-      <c r="I22" s="7">
-        <v>5609</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -4222,13 +4243,13 @@
         <v>6947</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,34 +4258,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7">
+        <v>6530</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" s="7">
         <v>7</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>4581</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H23" s="7">
-        <v>9</v>
-      </c>
-      <c r="I23" s="7">
-        <v>6530</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -4273,13 +4294,13 @@
         <v>11111</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,34 +4309,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>54</v>
+      </c>
+      <c r="D24" s="7">
+        <v>38221</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="7">
         <v>55</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>36342</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H24" s="7">
-        <v>54</v>
-      </c>
-      <c r="I24" s="7">
-        <v>38221</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M24" s="7">
         <v>109</v>
@@ -4324,13 +4345,13 @@
         <v>74563</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,34 +4360,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>70</v>
+      </c>
+      <c r="D25" s="7">
+        <v>49586</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H25" s="7">
         <v>56</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>37476</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H25" s="7">
-        <v>70</v>
-      </c>
-      <c r="I25" s="7">
-        <v>49586</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M25" s="7">
         <v>126</v>
@@ -4375,13 +4396,13 @@
         <v>87062</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,34 +4411,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>96</v>
+      </c>
+      <c r="D26" s="7">
+        <v>67184</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H26" s="7">
         <v>137</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>94826</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H26" s="7">
-        <v>96</v>
-      </c>
-      <c r="I26" s="7">
-        <v>67184</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M26" s="7">
         <v>233</v>
@@ -4426,13 +4447,13 @@
         <v>162010</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,34 +4462,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>237</v>
+      </c>
+      <c r="D27" s="7">
+        <v>167130</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>257</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>174562</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
-        <v>237</v>
-      </c>
-      <c r="I27" s="7">
-        <v>167130</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M27" s="7">
         <v>494</v>
@@ -4477,13 +4498,13 @@
         <v>341692</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,34 +4515,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>16</v>
+      </c>
+      <c r="D28" s="7">
+        <v>11278</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="7">
         <v>7</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>4764</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H28" s="7">
-        <v>16</v>
-      </c>
-      <c r="I28" s="7">
-        <v>11278</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -4530,13 +4551,13 @@
         <v>16042</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>244</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,34 +4566,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>13</v>
+      </c>
+      <c r="D29" s="7">
+        <v>9267</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H29" s="7">
         <v>15</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>10054</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H29" s="7">
-        <v>13</v>
-      </c>
-      <c r="I29" s="7">
-        <v>9267</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -4581,13 +4602,13 @@
         <v>19321</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>251</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,34 +4617,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>88</v>
+      </c>
+      <c r="D30" s="7">
+        <v>62606</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H30" s="7">
         <v>100</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>68871</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H30" s="7">
-        <v>88</v>
-      </c>
-      <c r="I30" s="7">
-        <v>62606</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="M30" s="7">
         <v>188</v>
@@ -4647,10 +4668,10 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D31" s="7">
-        <v>68099</v>
+        <v>80134</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>261</v>
@@ -4662,10 +4683,10 @@
         <v>263</v>
       </c>
       <c r="H31" s="7">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="I31" s="7">
-        <v>80134</v>
+        <v>68099</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>264</v>
@@ -4698,10 +4719,10 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="D32" s="7">
-        <v>179450</v>
+        <v>158641</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>270</v>
@@ -4713,10 +4734,10 @@
         <v>272</v>
       </c>
       <c r="H32" s="7">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="I32" s="7">
-        <v>158641</v>
+        <v>179450</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>273</v>
@@ -4749,34 +4770,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>457</v>
+      </c>
+      <c r="D33" s="7">
+        <v>321926</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>482</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>331237</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="7">
-        <v>457</v>
-      </c>
-      <c r="I33" s="7">
-        <v>321926</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M33" s="7">
         <v>939</v>
@@ -4785,18 +4806,18 @@
         <v>653163</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4816,7 +4837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A8B52E-BAB2-47BB-9759-6AE202AEF760}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0519EB-162D-4838-AAEF-7913ABA19FEB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5478,34 +5499,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>4808</v>
+        <v>3768</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>281</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>3768</v>
+        <v>4808</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -5514,13 +5535,13 @@
         <v>8576</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,34 +5550,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6447</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H17" s="7">
         <v>9</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>6437</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H17" s="7">
-        <v>10</v>
-      </c>
-      <c r="I17" s="7">
-        <v>6447</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -5565,13 +5586,13 @@
         <v>12884</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,34 +5601,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>41</v>
+      </c>
+      <c r="D18" s="7">
+        <v>28284</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H18" s="7">
         <v>50</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>35966</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H18" s="7">
-        <v>41</v>
-      </c>
-      <c r="I18" s="7">
-        <v>28284</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="M18" s="7">
         <v>91</v>
@@ -5616,13 +5637,13 @@
         <v>64249</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,34 +5652,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>75</v>
+      </c>
+      <c r="D19" s="7">
+        <v>51996</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H19" s="7">
         <v>60</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>43249</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H19" s="7">
-        <v>75</v>
-      </c>
-      <c r="I19" s="7">
-        <v>51996</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>177</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>135</v>
@@ -5667,13 +5688,13 @@
         <v>95245</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>307</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,34 +5703,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>134</v>
+      </c>
+      <c r="D20" s="7">
+        <v>94924</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H20" s="7">
         <v>135</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>96854</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H20" s="7">
-        <v>134</v>
-      </c>
-      <c r="I20" s="7">
-        <v>94924</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>269</v>
@@ -5718,13 +5739,13 @@
         <v>191778</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,34 +5754,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>266</v>
+      </c>
+      <c r="D21" s="7">
+        <v>185419</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>261</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>187313</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="7">
-        <v>266</v>
-      </c>
-      <c r="I21" s="7">
-        <v>185419</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
         <v>527</v>
@@ -5769,18 +5790,18 @@
         <v>372732</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5789,31 +5810,31 @@
         <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>4035</v>
+        <v>3873</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>320</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>3873</v>
+        <v>4035</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>118</v>
+        <v>322</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>71</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -5822,13 +5843,13 @@
         <v>7908</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,34 +5858,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7">
+        <v>9030</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H23" s="7">
         <v>4</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>3027</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="H23" s="7">
-        <v>12</v>
-      </c>
-      <c r="I23" s="7">
-        <v>9030</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -5873,13 +5894,13 @@
         <v>12057</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,34 +5909,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>57</v>
+      </c>
+      <c r="D24" s="7">
+        <v>37064</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H24" s="7">
         <v>51</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>36401</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="H24" s="7">
-        <v>57</v>
-      </c>
-      <c r="I24" s="7">
-        <v>37064</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M24" s="7">
         <v>108</v>
@@ -5924,13 +5945,13 @@
         <v>73465</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,34 +5960,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>68</v>
+      </c>
+      <c r="D25" s="7">
+        <v>48998</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H25" s="7">
         <v>70</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>52051</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H25" s="7">
-        <v>68</v>
-      </c>
-      <c r="I25" s="7">
-        <v>48998</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>346</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>138</v>
@@ -5975,13 +5996,13 @@
         <v>101048</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,34 +6011,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>101</v>
+      </c>
+      <c r="D26" s="7">
+        <v>71825</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H26" s="7">
         <v>105</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>78533</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H26" s="7">
-        <v>101</v>
-      </c>
-      <c r="I26" s="7">
-        <v>71825</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M26" s="7">
         <v>206</v>
@@ -6026,13 +6047,13 @@
         <v>150358</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,34 +6062,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>243</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>235</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>174048</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
-        <v>243</v>
-      </c>
-      <c r="I27" s="7">
-        <v>170789</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M27" s="7">
         <v>478</v>
@@ -6077,13 +6098,13 @@
         <v>344837</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,34 +6115,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>11</v>
+      </c>
+      <c r="D28" s="7">
+        <v>7641</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H28" s="7">
         <v>12</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>8843</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H28" s="7">
-        <v>11</v>
-      </c>
-      <c r="I28" s="7">
-        <v>7641</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>359</v>
+        <v>169</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>244</v>
+        <v>326</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -6130,13 +6151,13 @@
         <v>16484</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>290</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,34 +6166,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>22</v>
+      </c>
+      <c r="D29" s="7">
+        <v>15477</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H29" s="7">
         <v>13</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>9465</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H29" s="7">
-        <v>22</v>
-      </c>
-      <c r="I29" s="7">
-        <v>15477</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>361</v>
+        <v>209</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>328</v>
+        <v>244</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -6181,13 +6202,13 @@
         <v>24941</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,34 +6217,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>98</v>
+      </c>
+      <c r="D30" s="7">
+        <v>65348</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H30" s="7">
         <v>101</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>72367</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="H30" s="7">
-        <v>98</v>
-      </c>
-      <c r="I30" s="7">
-        <v>65348</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M30" s="7">
         <v>199</v>
@@ -6232,13 +6253,13 @@
         <v>137714</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,34 +6268,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>143</v>
+      </c>
+      <c r="D31" s="7">
+        <v>100993</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H31" s="7">
         <v>130</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>95300</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H31" s="7">
-        <v>143</v>
-      </c>
-      <c r="I31" s="7">
-        <v>100993</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>376</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="M31" s="7">
         <v>273</v>
@@ -6283,13 +6304,13 @@
         <v>196293</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>264</v>
+        <v>386</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,34 +6319,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>235</v>
+      </c>
+      <c r="D32" s="7">
+        <v>166749</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H32" s="7">
         <v>240</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>175387</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H32" s="7">
-        <v>235</v>
-      </c>
-      <c r="I32" s="7">
-        <v>166749</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>385</v>
+        <v>106</v>
       </c>
       <c r="M32" s="7">
         <v>475</v>
@@ -6334,13 +6355,13 @@
         <v>342136</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,34 +6370,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>509</v>
+      </c>
+      <c r="D33" s="7">
+        <v>356208</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>496</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>361361</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="7">
-        <v>509</v>
-      </c>
-      <c r="I33" s="7">
-        <v>356208</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M33" s="7">
         <v>1005</v>
@@ -6385,18 +6406,18 @@
         <v>717569</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
